--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayleen Cans\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFBB2F6-9B4D-4CA3-9EB6-38AFAFE1E39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7604664-0EAA-460C-A09B-4B7D1054D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2F0E9FE0-32C9-4A16-A1E3-4F2589DDB575}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17268" windowHeight="8880" xr2:uid="{2F0E9FE0-32C9-4A16-A1E3-4F2589DDB575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,49 +27,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>barang_kode</t>
+  </si>
+  <si>
+    <t>CLN-001</t>
+  </si>
+  <si>
+    <t>TNR-001</t>
+  </si>
+  <si>
+    <t>SRM-001</t>
+  </si>
+  <si>
+    <t>MST-001</t>
+  </si>
+  <si>
+    <t>SUN-001</t>
+  </si>
+  <si>
+    <t>barang_nama</t>
+  </si>
+  <si>
+    <t>Oriflame Vit C</t>
+  </si>
+  <si>
+    <t>Oriflame Radiance Toner</t>
+  </si>
+  <si>
+    <t>Somethinc 10% Niacinamide</t>
+  </si>
+  <si>
+    <t>Somethinc Calm Down Moist</t>
+  </si>
+  <si>
+    <t>Skintific Aqua Light 35PA+++</t>
+  </si>
+  <si>
+    <t>harga_beli</t>
+  </si>
+  <si>
+    <t>harga_jual</t>
+  </si>
+  <si>
     <t>kategori_id</t>
-  </si>
-  <si>
-    <t>barang_kode</t>
-  </si>
-  <si>
-    <t>CLN-001</t>
-  </si>
-  <si>
-    <t>TNR-001</t>
-  </si>
-  <si>
-    <t>SRM-001</t>
-  </si>
-  <si>
-    <t>MST-001</t>
-  </si>
-  <si>
-    <t>SUN-001</t>
-  </si>
-  <si>
-    <t>barang_nama</t>
-  </si>
-  <si>
-    <t>Oriflame Vit C</t>
-  </si>
-  <si>
-    <t>Oriflame Radiance Toner</t>
-  </si>
-  <si>
-    <t>Somethinc 10% Niacinamide</t>
-  </si>
-  <si>
-    <t>Somethinc Calm Down Moist</t>
-  </si>
-  <si>
-    <t>Skintific Aqua Light 35PA+++</t>
-  </si>
-  <si>
-    <t>harga_beli</t>
-  </si>
-  <si>
-    <t>harga_jual</t>
   </si>
 </sst>
 </file>
@@ -433,33 +433,33 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -467,10 +467,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>55000</v>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>50000</v>
@@ -501,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>61000</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>129500</v>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>49000</v>
